--- a/fMRI Tasks/WASABI distractmap/nbackorder/N-back-1_7.xlsx
+++ b/fMRI Tasks/WASABI distractmap/nbackorder/N-back-1_7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI distractmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dartmouth\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI distractmap\nbackorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3B9592-85D1-42CA-B5F1-D9964D751066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464CE714-971C-42F4-BEE6-387C03C6533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43470" yWindow="1680" windowWidth="19200" windowHeight="22320" xr2:uid="{9E6EBF78-D929-41BF-B9ED-64FB44F59BCA}"/>
+    <workbookView xWindow="11025" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{9E6EBF78-D929-41BF-B9ED-64FB44F59BCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet8" sheetId="1" r:id="rId1"/>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C762654D-E601-447A-8125-00152EE07EE2}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,6 +609,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,'[1]Square Locations'!A$1:$B$10,2,FALSE)</f>
+        <v>[-0.2, 0.2]</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,'[1]Square Locations'!A$1:$B$10,2,FALSE)</f>
+        <v>[0, -0.2]</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,'[1]Square Locations'!A$1:$B$10,2,FALSE)</f>
+        <v>[-0.2, -0.2]</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
